--- a/EcommerceProFramework/Testdata/testScriptData.xlsx
+++ b/EcommerceProFramework/Testdata/testScriptData.xlsx
@@ -301,10 +301,10 @@
     <t>Product has been added to the cart</t>
   </si>
   <si>
-    <t>asimaa</t>
-  </si>
-  <si>
-    <t>asimaa@gmail.com</t>
+    <t>mona</t>
+  </si>
+  <si>
+    <t>mona@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.09765625" defaultRowHeight="13.8"/>
@@ -1027,13 +1027,13 @@
         <v>89</v>
       </c>
       <c r="E20">
-        <v>9878909876</v>
+        <v>9978909876</v>
       </c>
       <c r="F20">
-        <v>12356789</v>
+        <v>1233</v>
       </c>
       <c r="G20">
-        <v>123456789</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="22" spans="1:7">
